--- a/דרישות התקנה.xlsx
+++ b/דרישות התקנה.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>תוכנות</t>
   </si>
@@ -65,9 +65,6 @@
     <t>matplotlib, seaborn</t>
   </si>
   <si>
-    <t>Pandas ,GeoPandas , sqlite3</t>
-  </si>
-  <si>
     <t>osgeo , gdal , osr, ogr</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>iis enabled on windows os</t>
+  </si>
+  <si>
+    <t>Pandas ,GeoPandas , sqlite3, psycopg2</t>
+  </si>
+  <si>
+    <t>numpy, datatime, random</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -444,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -455,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -484,22 +487,22 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/דרישות התקנה.xlsx
+++ b/דרישות התקנה.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>תוכנות</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>ספריות פייתון</t>
-  </si>
-  <si>
-    <t>numpy</t>
   </si>
   <si>
     <r>
@@ -439,7 +436,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -447,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -458,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -466,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -474,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -482,27 +479,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/דרישות התקנה.xlsx
+++ b/דרישות התקנה.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3C4D0B-574C-6540-9A48-3AC782ABFF3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>תוכנות</t>
   </si>
@@ -59,9 +60,6 @@
     <t>difflib</t>
   </si>
   <si>
-    <t>matplotlib, seaborn</t>
-  </si>
-  <si>
     <t>osgeo , gdal , osr, ogr</t>
   </si>
   <si>
@@ -71,26 +69,47 @@
     <t>os,gc,osr,sys , re</t>
   </si>
   <si>
-    <t>keras , sklearn , tensoflow, pytorch,tensorboard , scipy</t>
-  </si>
-  <si>
     <t>אחרים</t>
   </si>
   <si>
     <t>iis enabled on windows os</t>
   </si>
   <si>
-    <t>Pandas ,GeoPandas , sqlite3, psycopg2</t>
-  </si>
-  <si>
-    <t>numpy, datatime, random</t>
+    <t>Pandas ,GeoPandas , sqlite3, psycopg2, dask</t>
+  </si>
+  <si>
+    <t>numpy, datatime, random, navpy</t>
+  </si>
+  <si>
+    <t>matplotlib, seaborn, plotly</t>
+  </si>
+  <si>
+    <t>csvsplitter</t>
+  </si>
+  <si>
+    <t>keras , sklearn , tensoflow, pytorch,tensorboard , scipy, torchvision, pytorch_geometric</t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>anylogic</t>
+  </si>
+  <si>
+    <t>pytorch-lightning, pytorch-forecasting</t>
+  </si>
+  <si>
+    <t>good html files to have</t>
+  </si>
+  <si>
+    <t>https://pytorch-forecasting.readthedocs.io/en/latest/tutorials/stallion.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +130,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,14 +162,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,21 +451,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="36.90625" customWidth="1"/>
+    <col min="2" max="2" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,37 +473,43 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -474,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -482,28 +525,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="https://pytorch-lightning.readthedocs.io/" xr:uid="{51759F63-FA17-7B45-B6B7-50DBD26C1EB6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/דרישות התקנה.xlsx
+++ b/דרישות התקנה.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3C4D0B-574C-6540-9A48-3AC782ABFF3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5AEC94-2F7B-0D40-BE26-33CB1138DB12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>osgeo , gdal , osr, ogr</t>
   </si>
   <si>
-    <t>Ipython, graphviz</t>
-  </si>
-  <si>
     <t>os,gc,osr,sys , re</t>
   </si>
   <si>
@@ -78,12 +75,6 @@
     <t>Pandas ,GeoPandas , sqlite3, psycopg2, dask</t>
   </si>
   <si>
-    <t>numpy, datatime, random, navpy</t>
-  </si>
-  <si>
-    <t>matplotlib, seaborn, plotly</t>
-  </si>
-  <si>
     <t>csvsplitter</t>
   </si>
   <si>
@@ -103,6 +94,15 @@
   </si>
   <si>
     <t>https://pytorch-forecasting.readthedocs.io/en/latest/tutorials/stallion.html</t>
+  </si>
+  <si>
+    <t>numpy, datatime, random, navpy, shapely</t>
+  </si>
+  <si>
+    <t>matplotlib, seaborn, plotly, bokeh</t>
+  </si>
+  <si>
+    <t>Ipython, graphviz, ipywidgets, widgetsnbextension, jupyterlab_widgets</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -484,13 +484,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -535,30 +535,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.25">

--- a/דרישות התקנה.xlsx
+++ b/דרישות התקנה.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5AEC94-2F7B-0D40-BE26-33CB1138DB12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F95CA-EB10-C742-A9BF-3A906391521B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>תוכנות</t>
   </si>
@@ -96,13 +96,19 @@
     <t>https://pytorch-forecasting.readthedocs.io/en/latest/tutorials/stallion.html</t>
   </si>
   <si>
-    <t>numpy, datatime, random, navpy, shapely</t>
-  </si>
-  <si>
     <t>matplotlib, seaborn, plotly, bokeh</t>
   </si>
   <si>
     <t>Ipython, graphviz, ipywidgets, widgetsnbextension, jupyterlab_widgets</t>
+  </si>
+  <si>
+    <t>seirsplus</t>
+  </si>
+  <si>
+    <t>numpy, datatime, random, navpy, shapely, networkx</t>
+  </si>
+  <si>
+    <t>pyprob</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -506,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -548,7 +554,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,7 +568,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/דרישות התקנה.xlsx
+++ b/דרישות התקנה.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F95CA-EB10-C742-A9BF-3A906391521B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FFA8B-3D61-D143-AE35-342950A54F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>תוכנות</t>
   </si>
@@ -78,9 +78,6 @@
     <t>csvsplitter</t>
   </si>
   <si>
-    <t>keras , sklearn , tensoflow, pytorch,tensorboard , scipy, torchvision, pytorch_geometric</t>
-  </si>
-  <si>
     <t>gym</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>pyprob</t>
+  </si>
+  <si>
+    <t>keras , sklearn , tensoflow, pytorch,tensorboard , scipy, torchvision</t>
+  </si>
+  <si>
+    <t>torch-geometric,  torch-geometric-temporal</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -496,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -504,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -512,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,7 +544,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -549,32 +552,37 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
